--- a/buzzers.xlsx
+++ b/buzzers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="420" windowWidth="17955" windowHeight="9000"/>
+    <workbookView xWindow="600" yWindow="420" windowWidth="17955" windowHeight="9000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
   <si>
     <t>KSSG74B16</t>
   </si>
@@ -112,6 +112,15 @@
   </si>
   <si>
     <t>Actual</t>
+  </si>
+  <si>
+    <t>soic</t>
+  </si>
+  <si>
+    <t>mlf</t>
+  </si>
+  <si>
+    <t>ssot</t>
   </si>
 </sst>
 </file>
@@ -469,7 +478,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -950,12 +959,39 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3">
+        <v>0.04</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
